--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H2">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N2">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O2">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P2">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q2">
-        <v>13.31483073936267</v>
+        <v>36.92062827514156</v>
       </c>
       <c r="R2">
-        <v>119.833476654264</v>
+        <v>332.285654476274</v>
       </c>
       <c r="S2">
-        <v>0.004756846760847642</v>
+        <v>0.01192757009334789</v>
       </c>
       <c r="T2">
-        <v>0.004756846760847641</v>
+        <v>0.01192757009334789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H3">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I3">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J3">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>158.443176</v>
       </c>
       <c r="O3">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P3">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q3">
-        <v>27.166455699392</v>
+        <v>46.37633521999734</v>
       </c>
       <c r="R3">
-        <v>244.498101294528</v>
+        <v>417.387016979976</v>
       </c>
       <c r="S3">
-        <v>0.009705468235156056</v>
+        <v>0.01498232871030404</v>
       </c>
       <c r="T3">
-        <v>0.009705468235156056</v>
+        <v>0.01498232871030404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H4">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I4">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J4">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N4">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O4">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P4">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q4">
-        <v>24.99490768184534</v>
+        <v>60.42917313335779</v>
       </c>
       <c r="R4">
-        <v>224.9541691366081</v>
+        <v>543.8625582002201</v>
       </c>
       <c r="S4">
-        <v>0.00892966256736381</v>
+        <v>0.01952223545221933</v>
       </c>
       <c r="T4">
-        <v>0.00892966256736381</v>
+        <v>0.01952223545221933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H5">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I5">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J5">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N5">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O5">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P5">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q5">
-        <v>8.498161237552003</v>
+        <v>10.34496705532544</v>
       </c>
       <c r="R5">
-        <v>76.48345113796802</v>
+        <v>93.10470349792901</v>
       </c>
       <c r="S5">
-        <v>0.003036046912448036</v>
+        <v>0.003342042793698798</v>
       </c>
       <c r="T5">
-        <v>0.003036046912448035</v>
+        <v>0.003342042793698798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H6">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I6">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J6">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N6">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O6">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P6">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q6">
-        <v>61.51796261018134</v>
+        <v>122.7766357666123</v>
       </c>
       <c r="R6">
-        <v>553.6616634916321</v>
+        <v>1104.989721899511</v>
       </c>
       <c r="S6">
-        <v>0.02197786264838351</v>
+        <v>0.03966419309060626</v>
       </c>
       <c r="T6">
-        <v>0.02197786264838351</v>
+        <v>0.03966419309060626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H7">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I7">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J7">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N7">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O7">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P7">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q7">
-        <v>27.33842085496</v>
+        <v>35.92243250081911</v>
       </c>
       <c r="R7">
-        <v>246.0457876946401</v>
+        <v>323.301892507372</v>
       </c>
       <c r="S7">
-        <v>0.009766904381754902</v>
+        <v>0.0116050931848731</v>
       </c>
       <c r="T7">
-        <v>0.009766904381754902</v>
+        <v>0.01160509318487309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.345897</v>
       </c>
       <c r="I8">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J8">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N8">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O8">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P8">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q8">
-        <v>2.984561234229</v>
+        <v>4.847864598042</v>
       </c>
       <c r="R8">
-        <v>26.86105110806101</v>
+        <v>43.630781382378</v>
       </c>
       <c r="S8">
-        <v>0.001066262179182101</v>
+        <v>0.001566150076463834</v>
       </c>
       <c r="T8">
-        <v>0.0010662621791821</v>
+        <v>0.001566150076463834</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.345897</v>
       </c>
       <c r="I9">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J9">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>158.443176</v>
       </c>
       <c r="O9">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P9">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q9">
         <v>6.089446583208</v>
@@ -1013,10 +1013,10 @@
         <v>54.805019248872</v>
       </c>
       <c r="S9">
-        <v>0.002175511264221616</v>
+        <v>0.001967255280967526</v>
       </c>
       <c r="T9">
-        <v>0.002175511264221616</v>
+        <v>0.001967255280967526</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.345897</v>
       </c>
       <c r="I10">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J10">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N10">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O10">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P10">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q10">
-        <v>5.602687257588</v>
+        <v>7.934655037260002</v>
       </c>
       <c r="R10">
-        <v>50.424185318292</v>
+        <v>71.41189533534001</v>
       </c>
       <c r="S10">
-        <v>0.002001611981030374</v>
+        <v>0.00256336792045264</v>
       </c>
       <c r="T10">
-        <v>0.002001611981030374</v>
+        <v>0.00256336792045264</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.345897</v>
       </c>
       <c r="I11">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J11">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N11">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O11">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P11">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q11">
-        <v>1.904889599298</v>
+        <v>1.358346320157</v>
       </c>
       <c r="R11">
-        <v>17.144006393682</v>
+        <v>12.225116881413</v>
       </c>
       <c r="S11">
-        <v>0.0006805394749334067</v>
+        <v>0.0004388270650210561</v>
       </c>
       <c r="T11">
-        <v>0.0006805394749334066</v>
+        <v>0.0004388270650210561</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.345897</v>
       </c>
       <c r="I12">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J12">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N12">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O12">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P12">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q12">
-        <v>13.789445018802</v>
+        <v>16.121191155363</v>
       </c>
       <c r="R12">
-        <v>124.105005169218</v>
+        <v>145.090720398267</v>
       </c>
       <c r="S12">
-        <v>0.004926407113659988</v>
+        <v>0.005208108487777757</v>
       </c>
       <c r="T12">
-        <v>0.004926407113659988</v>
+        <v>0.005208108487777757</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.345897</v>
       </c>
       <c r="I13">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J13">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N13">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O13">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P13">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q13">
-        <v>6.12799311429</v>
+        <v>4.716796461276</v>
       </c>
       <c r="R13">
-        <v>55.15193802861</v>
+        <v>42.451168151484</v>
       </c>
       <c r="S13">
-        <v>0.002189282369923865</v>
+        <v>0.001523807232874318</v>
       </c>
       <c r="T13">
-        <v>0.002189282369923865</v>
+        <v>0.001523807232874318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H14">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I14">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J14">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N14">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O14">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P14">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q14">
-        <v>110.1513604167008</v>
+        <v>148.0350970480793</v>
       </c>
       <c r="R14">
-        <v>991.362243750307</v>
+        <v>1332.315873432714</v>
       </c>
       <c r="S14">
-        <v>0.03935259503165302</v>
+        <v>0.04782418606633945</v>
       </c>
       <c r="T14">
-        <v>0.03935259503165301</v>
+        <v>0.04782418606633945</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H15">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I15">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J15">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>158.443176</v>
       </c>
       <c r="O15">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P15">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q15">
-        <v>224.7435293444293</v>
+        <v>185.948224766504</v>
       </c>
       <c r="R15">
-        <v>2022.691764099864</v>
+        <v>1673.534022898536</v>
       </c>
       <c r="S15">
-        <v>0.08029171008708502</v>
+        <v>0.06007239281270275</v>
       </c>
       <c r="T15">
-        <v>0.08029171008708502</v>
+        <v>0.06007239281270275</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H16">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I16">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J16">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N16">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O16">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P16">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q16">
-        <v>206.7786769910449</v>
+        <v>242.2937779570467</v>
       </c>
       <c r="R16">
-        <v>1861.008092919404</v>
+        <v>2180.64400161342</v>
       </c>
       <c r="S16">
-        <v>0.07387359998121121</v>
+        <v>0.07827537489958013</v>
       </c>
       <c r="T16">
-        <v>0.07387359998121121</v>
+        <v>0.07827537489958011</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H17">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I17">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J17">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N17">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O17">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P17">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q17">
-        <v>70.30386188759266</v>
+        <v>41.47866040040766</v>
       </c>
       <c r="R17">
-        <v>632.734756988334</v>
+        <v>373.307943603669</v>
       </c>
       <c r="S17">
-        <v>0.0251167066439992</v>
+        <v>0.01340008695456413</v>
       </c>
       <c r="T17">
-        <v>0.0251167066439992</v>
+        <v>0.01340008695456413</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H18">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I18">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J18">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N18">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O18">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P18">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q18">
-        <v>508.9277816759962</v>
+        <v>492.279033160019</v>
       </c>
       <c r="R18">
-        <v>4580.350035083966</v>
+        <v>4430.511298440171</v>
       </c>
       <c r="S18">
-        <v>0.1818191697032956</v>
+        <v>0.159035556755545</v>
       </c>
       <c r="T18">
-        <v>0.1818191697032956</v>
+        <v>0.159035556755545</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H19">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I19">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J19">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N19">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O19">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P19">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q19">
-        <v>226.1661682198966</v>
+        <v>144.0327813988547</v>
       </c>
       <c r="R19">
-        <v>2035.49551397907</v>
+        <v>1296.295032589692</v>
       </c>
       <c r="S19">
-        <v>0.08079996101862835</v>
+        <v>0.04653119884829766</v>
       </c>
       <c r="T19">
-        <v>0.08079996101862835</v>
+        <v>0.04653119884829766</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H20">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I20">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J20">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N20">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O20">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P20">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q20">
-        <v>3.089181410076223</v>
+        <v>1.950935544533333</v>
       </c>
       <c r="R20">
-        <v>27.802632690686</v>
+        <v>17.5584199008</v>
       </c>
       <c r="S20">
-        <v>0.001103638707231153</v>
+        <v>0.0006302688102058291</v>
       </c>
       <c r="T20">
-        <v>0.001103638707231153</v>
+        <v>0.0006302688102058291</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H21">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I21">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J21">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>158.443176</v>
       </c>
       <c r="O21">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P21">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q21">
-        <v>6.302904750874666</v>
+        <v>2.4505877888</v>
       </c>
       <c r="R21">
-        <v>56.726142757872</v>
+        <v>22.0552900992</v>
       </c>
       <c r="S21">
-        <v>0.00225177117419102</v>
+        <v>0.0007916863549284316</v>
       </c>
       <c r="T21">
-        <v>0.00225177117419102</v>
+        <v>0.0007916863549284316</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H22">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I22">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J22">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N22">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O22">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P22">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q22">
-        <v>5.799082667199111</v>
+        <v>3.193158602666667</v>
       </c>
       <c r="R22">
-        <v>52.19174400479201</v>
+        <v>28.738427424</v>
       </c>
       <c r="S22">
-        <v>0.002071776062447655</v>
+        <v>0.0010315811196021</v>
       </c>
       <c r="T22">
-        <v>0.002071776062447655</v>
+        <v>0.0010315811196021</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H23">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I23">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J23">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N23">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O23">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P23">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q23">
-        <v>1.971663194881333</v>
+        <v>0.5466419418666666</v>
       </c>
       <c r="R23">
-        <v>17.744968753932</v>
+        <v>4.9197774768</v>
       </c>
       <c r="S23">
-        <v>0.0007043949612011904</v>
+        <v>0.0001765980261492034</v>
       </c>
       <c r="T23">
-        <v>0.0007043949612011903</v>
+        <v>0.0001765980261492034</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H24">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I24">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J24">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N24">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O24">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P24">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q24">
-        <v>14.27281729682978</v>
+        <v>6.4876821968</v>
       </c>
       <c r="R24">
-        <v>128.455355671468</v>
+        <v>58.3891397712</v>
       </c>
       <c r="S24">
-        <v>0.005099096342688073</v>
+        <v>0.002095909191171545</v>
       </c>
       <c r="T24">
-        <v>0.005099096342688073</v>
+        <v>0.002095909191171545</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H25">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I25">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J25">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N25">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O25">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P25">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q25">
-        <v>6.342802483873333</v>
+        <v>1.898189540266667</v>
       </c>
       <c r="R25">
-        <v>57.08522235486001</v>
+        <v>17.0837058624</v>
       </c>
       <c r="S25">
-        <v>0.002266025009308789</v>
+        <v>0.0006132286976068167</v>
       </c>
       <c r="T25">
-        <v>0.002266025009308789</v>
+        <v>0.0006132286976068167</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H26">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I26">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J26">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N26">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O26">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P26">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q26">
-        <v>27.89385285555667</v>
+        <v>17.28049567775333</v>
       </c>
       <c r="R26">
-        <v>251.04467570001</v>
+        <v>155.52446109978</v>
       </c>
       <c r="S26">
-        <v>0.009965337614938896</v>
+        <v>0.005582633153157192</v>
       </c>
       <c r="T26">
-        <v>0.009965337614938894</v>
+        <v>0.005582633153157192</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H27">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I27">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J27">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>158.443176</v>
       </c>
       <c r="O27">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P27">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q27">
-        <v>56.91226067528</v>
+        <v>21.70618696808</v>
       </c>
       <c r="R27">
-        <v>512.2103460775199</v>
+        <v>195.35568271272</v>
       </c>
       <c r="S27">
-        <v>0.02033243291973539</v>
+        <v>0.007012396013190432</v>
       </c>
       <c r="T27">
-        <v>0.02033243291973539</v>
+        <v>0.007012396013190432</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H28">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I28">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J28">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N28">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O28">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P28">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q28">
-        <v>52.36298460441334</v>
+        <v>28.28353995926667</v>
       </c>
       <c r="R28">
-        <v>471.2668614397201</v>
+        <v>254.5518596334</v>
       </c>
       <c r="S28">
-        <v>0.0187071618542964</v>
+        <v>0.009137274231579029</v>
       </c>
       <c r="T28">
-        <v>0.0187071618542964</v>
+        <v>0.009137274231579028</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H29">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I29">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J29">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N29">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O29">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P29">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q29">
-        <v>17.80318982218</v>
+        <v>4.841904562236667</v>
       </c>
       <c r="R29">
-        <v>160.22870839962</v>
+        <v>43.57714106013</v>
       </c>
       <c r="S29">
-        <v>0.006360354667373436</v>
+        <v>0.001564224628600455</v>
       </c>
       <c r="T29">
-        <v>0.006360354667373435</v>
+        <v>0.001564224628600455</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H30">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I30">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J30">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N30">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O30">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P30">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q30">
-        <v>128.8768164321534</v>
+        <v>57.46492469963</v>
       </c>
       <c r="R30">
-        <v>1159.89134788938</v>
+        <v>517.18432229667</v>
       </c>
       <c r="S30">
-        <v>0.04604243784949451</v>
+        <v>0.01856460600171537</v>
       </c>
       <c r="T30">
-        <v>0.04604243784949451</v>
+        <v>0.01856460600171537</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H31">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I31">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J31">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N31">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O31">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P31">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q31">
-        <v>57.27251840890001</v>
+        <v>16.81329567142667</v>
       </c>
       <c r="R31">
-        <v>515.4526656801</v>
+        <v>151.31966104284</v>
       </c>
       <c r="S31">
-        <v>0.02046113833603291</v>
+        <v>0.005431699621323827</v>
       </c>
       <c r="T31">
-        <v>0.02046113833603291</v>
+        <v>0.005431699621323826</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H32">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I32">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J32">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N32">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O32">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P32">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q32">
-        <v>71.45037713738178</v>
+        <v>156.3585140757511</v>
       </c>
       <c r="R32">
-        <v>643.053394236436</v>
+        <v>1407.22662668176</v>
       </c>
       <c r="S32">
-        <v>0.02552630984955094</v>
+        <v>0.05051314735036407</v>
       </c>
       <c r="T32">
-        <v>0.02552630984955093</v>
+        <v>0.05051314735036408</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H33">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I33">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J33">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>158.443176</v>
       </c>
       <c r="O33">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P33">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q33">
-        <v>145.7813128235413</v>
+        <v>196.4033442020267</v>
       </c>
       <c r="R33">
-        <v>1312.031815411872</v>
+        <v>1767.63009781824</v>
       </c>
       <c r="S33">
-        <v>0.05208172595440538</v>
+        <v>0.06345002141024975</v>
       </c>
       <c r="T33">
-        <v>0.05208172595440538</v>
+        <v>0.06345002141024976</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H34">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I34">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J34">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N34">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O34">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P34">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q34">
-        <v>134.1282976359769</v>
+        <v>255.9169808147556</v>
       </c>
       <c r="R34">
-        <v>1207.154678723792</v>
+        <v>2303.2528273328</v>
       </c>
       <c r="S34">
-        <v>0.04791857821079932</v>
+        <v>0.08267648383440897</v>
       </c>
       <c r="T34">
-        <v>0.04791857821079932</v>
+        <v>0.08267648383440897</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H35">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I35">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J35">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N35">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O35">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P35">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q35">
-        <v>45.60304500171467</v>
+        <v>43.81083834432889</v>
       </c>
       <c r="R35">
-        <v>410.427405015432</v>
+        <v>394.29754509896</v>
       </c>
       <c r="S35">
-        <v>0.01629211074083688</v>
+        <v>0.01415351985091084</v>
       </c>
       <c r="T35">
-        <v>0.01629211074083688</v>
+        <v>0.01415351985091084</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H36">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I36">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J36">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N36">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O36">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P36">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q36">
-        <v>330.1192268427742</v>
+        <v>519.9578996496267</v>
       </c>
       <c r="R36">
-        <v>2971.073041584968</v>
+        <v>4679.62109684664</v>
       </c>
       <c r="S36">
-        <v>0.1179381552525649</v>
+        <v>0.1679774853083019</v>
       </c>
       <c r="T36">
-        <v>0.1179381552525649</v>
+        <v>0.167977485308302</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H37">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I37">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J37">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N37">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O37">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P37">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q37">
-        <v>146.7041165347067</v>
+        <v>152.1311643441422</v>
       </c>
       <c r="R37">
-        <v>1320.33704881236</v>
+        <v>1369.18047909728</v>
       </c>
       <c r="S37">
-        <v>0.05241140613812547</v>
+        <v>0.04914746067089851</v>
       </c>
       <c r="T37">
-        <v>0.05241140613812547</v>
+        <v>0.04914746067089851</v>
       </c>
     </row>
   </sheetData>
